--- a/PRA结果.xlsx
+++ b/PRA结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9940" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9940"/>
   </bookViews>
   <sheets>
     <sheet name="yago" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="257">
   <si>
     <t>MAP-score</t>
   </si>
@@ -910,13 +910,26 @@
     <t>637M</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>SFE-lit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>transE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRA-lit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000%"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -973,7 +986,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -989,6 +1002,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,7 +1057,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1063,17 +1082,293 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="85">
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="0.000%"/>
     </dxf>
@@ -1503,93 +1798,93 @@
   </dxfs>
   <tableStyles count="19">
     <tableStyle name="FB15K-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="56"/>
-      <tableStyleElement type="firstRowStripe" dxfId="55"/>
-      <tableStyleElement type="secondRowStripe" dxfId="54"/>
+      <tableStyleElement type="headerRow" dxfId="84"/>
+      <tableStyleElement type="firstRowStripe" dxfId="83"/>
+      <tableStyleElement type="secondRowStripe" dxfId="82"/>
     </tableStyle>
     <tableStyle name="FB15K-style 2" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="53"/>
-      <tableStyleElement type="firstRowStripe" dxfId="52"/>
-      <tableStyleElement type="secondRowStripe" dxfId="51"/>
+      <tableStyleElement type="headerRow" dxfId="81"/>
+      <tableStyleElement type="firstRowStripe" dxfId="80"/>
+      <tableStyleElement type="secondRowStripe" dxfId="79"/>
     </tableStyle>
     <tableStyle name="yago-style" pivot="0" count="2">
+      <tableStyleElement type="firstRowStripe" dxfId="78"/>
+      <tableStyleElement type="secondRowStripe" dxfId="77"/>
+    </tableStyle>
+    <tableStyle name="yago-style 2" pivot="0" count="2">
+      <tableStyleElement type="firstRowStripe" dxfId="76"/>
+      <tableStyleElement type="secondRowStripe" dxfId="75"/>
+    </tableStyle>
+    <tableStyle name="yago-style 3" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="74"/>
+      <tableStyleElement type="firstRowStripe" dxfId="73"/>
+      <tableStyleElement type="secondRowStripe" dxfId="72"/>
+    </tableStyle>
+    <tableStyle name="yago-style 4" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="71"/>
+      <tableStyleElement type="firstRowStripe" dxfId="70"/>
+      <tableStyleElement type="secondRowStripe" dxfId="69"/>
+    </tableStyle>
+    <tableStyle name="yago-style 5" pivot="0" count="2">
+      <tableStyleElement type="firstRowStripe" dxfId="68"/>
+      <tableStyleElement type="secondRowStripe" dxfId="67"/>
+    </tableStyle>
+    <tableStyle name="yago-style 6" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="66"/>
+      <tableStyleElement type="firstRowStripe" dxfId="65"/>
+      <tableStyleElement type="secondRowStripe" dxfId="64"/>
+    </tableStyle>
+    <tableStyle name="yago-style 7" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="63"/>
+      <tableStyleElement type="firstRowStripe" dxfId="62"/>
+      <tableStyleElement type="secondRowStripe" dxfId="61"/>
+    </tableStyle>
+    <tableStyle name="yago-style 8" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="60"/>
+      <tableStyleElement type="firstRowStripe" dxfId="59"/>
+      <tableStyleElement type="secondRowStripe" dxfId="58"/>
+    </tableStyle>
+    <tableStyle name="yago-style 9" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="57"/>
+      <tableStyleElement type="firstRowStripe" dxfId="56"/>
+      <tableStyleElement type="secondRowStripe" dxfId="55"/>
+    </tableStyle>
+    <tableStyle name="yago-style 10" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="54"/>
+      <tableStyleElement type="firstRowStripe" dxfId="53"/>
+      <tableStyleElement type="secondRowStripe" dxfId="52"/>
+    </tableStyle>
+    <tableStyle name="yago-style 11" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="51"/>
       <tableStyleElement type="firstRowStripe" dxfId="50"/>
       <tableStyleElement type="secondRowStripe" dxfId="49"/>
     </tableStyle>
-    <tableStyle name="yago-style 2" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="48"/>
-      <tableStyleElement type="secondRowStripe" dxfId="47"/>
+    <tableStyle name="yago-style 12" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="48"/>
+      <tableStyleElement type="firstRowStripe" dxfId="47"/>
+      <tableStyleElement type="secondRowStripe" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="yago-style 3" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="46"/>
+    <tableStyle name="yago-style 13" pivot="0" count="2">
       <tableStyleElement type="firstRowStripe" dxfId="45"/>
       <tableStyleElement type="secondRowStripe" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="yago-style 4" pivot="0" count="3">
+    <tableStyle name="yago-style 14" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="43"/>
       <tableStyleElement type="firstRowStripe" dxfId="42"/>
       <tableStyleElement type="secondRowStripe" dxfId="41"/>
     </tableStyle>
-    <tableStyle name="yago-style 5" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="40"/>
-      <tableStyleElement type="secondRowStripe" dxfId="39"/>
+    <tableStyle name="yago-style 15" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="40"/>
+      <tableStyleElement type="firstRowStripe" dxfId="39"/>
+      <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="yago-style 6" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="38"/>
+    <tableStyle name="yago-style 16" pivot="0" count="2">
       <tableStyleElement type="firstRowStripe" dxfId="37"/>
       <tableStyleElement type="secondRowStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="yago-style 7" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="35"/>
-      <tableStyleElement type="firstRowStripe" dxfId="34"/>
-      <tableStyleElement type="secondRowStripe" dxfId="33"/>
-    </tableStyle>
-    <tableStyle name="yago-style 8" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="32"/>
-      <tableStyleElement type="firstRowStripe" dxfId="31"/>
-      <tableStyleElement type="secondRowStripe" dxfId="30"/>
-    </tableStyle>
-    <tableStyle name="yago-style 9" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="29"/>
-      <tableStyleElement type="firstRowStripe" dxfId="28"/>
-      <tableStyleElement type="secondRowStripe" dxfId="27"/>
-    </tableStyle>
-    <tableStyle name="yago-style 10" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="26"/>
-      <tableStyleElement type="firstRowStripe" dxfId="25"/>
-      <tableStyleElement type="secondRowStripe" dxfId="24"/>
-    </tableStyle>
-    <tableStyle name="yago-style 11" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="firstRowStripe" dxfId="22"/>
-      <tableStyleElement type="secondRowStripe" dxfId="21"/>
-    </tableStyle>
-    <tableStyle name="yago-style 12" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="20"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="secondRowStripe" dxfId="18"/>
-    </tableStyle>
-    <tableStyle name="yago-style 13" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="17"/>
-      <tableStyleElement type="secondRowStripe" dxfId="16"/>
-    </tableStyle>
-    <tableStyle name="yago-style 14" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
-    </tableStyle>
-    <tableStyle name="yago-style 15" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
-    </tableStyle>
-    <tableStyle name="yago-style 16" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
-    </tableStyle>
     <tableStyle name="yago-style 17" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="35"/>
+      <tableStyleElement type="secondRowStripe" dxfId="34"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1604,27 +1899,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_3" displayName="Table_3" ref="I2:I24" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_3" displayName="Table_3" ref="F2:F24" headerRowCount="0" headerRowDxfId="18" dataDxfId="16" totalsRowDxfId="17">
   <tableColumns count="1">
-    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="1" name="Column1" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="yago-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table_18" displayName="Table_18" ref="F2:F24" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table_18" displayName="Table_18" ref="G2:G24" headerRowCount="0" headerRowDxfId="6" dataDxfId="4" totalsRowDxfId="5">
   <tableColumns count="1">
-    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="1" name="Column1" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="yago-style 16" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table_19" displayName="Table_19" ref="D2:D24" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table_19" displayName="Table_19" ref="D2:D24" headerRowCount="0" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
   <tableColumns count="1">
-    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="1" name="Column1" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="yago-style 17" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1634,12 +1929,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_2" displayName="Table_2" ref="A41:Y41" headerRowCount="0">
   <tableColumns count="25">
     <tableColumn id="1" name="PRA"/>
-    <tableColumn id="2" name="AUC" dataDxfId="5"/>
-    <tableColumn id="3" name="MR" dataDxfId="4"/>
-    <tableColumn id="4" name="hit@1" dataDxfId="3"/>
-    <tableColumn id="5" name="PRA-literal" dataDxfId="2"/>
-    <tableColumn id="6" name="AUC2" dataDxfId="1"/>
-    <tableColumn id="7" name="MR3" dataDxfId="0"/>
+    <tableColumn id="2" name="AUC" dataDxfId="33"/>
+    <tableColumn id="3" name="MR" dataDxfId="32"/>
+    <tableColumn id="4" name="hit@1" dataDxfId="31"/>
+    <tableColumn id="5" name="PRA-literal" dataDxfId="30"/>
+    <tableColumn id="6" name="AUC2" dataDxfId="29"/>
+    <tableColumn id="7" name="MR3" dataDxfId="28"/>
     <tableColumn id="8" name="hit@14"/>
     <tableColumn id="9" name="SFE"/>
     <tableColumn id="10" name="AUC5"/>
@@ -1664,7 +1959,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_4" displayName="Table_4" ref="H2:H24" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_4" displayName="Table_4" ref="I2:I24" headerRowCount="0">
   <tableColumns count="1">
     <tableColumn id="1" name="Column1"/>
   </tableColumns>
@@ -1673,27 +1968,27 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_5" displayName="Table_5" ref="C1:C24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table_5" displayName="Table_5" ref="C1:C24" headerRowDxfId="27" dataDxfId="14" totalsRowDxfId="26">
   <tableColumns count="1">
-    <tableColumn id="1" name="PRA-literal"/>
+    <tableColumn id="1" name="PRA-lit" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="yago-style 3" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_6" displayName="Table_6" ref="B1:B24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table_6" displayName="Table_6" ref="B1:B24" headerRowDxfId="25" dataDxfId="12" totalsRowDxfId="24">
   <tableColumns count="1">
-    <tableColumn id="1" name="SFE-literal"/>
+    <tableColumn id="1" name="SFE-lit" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="yago-style 4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table_7" displayName="Table_7" ref="E2:E24" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table_7" displayName="Table_7" ref="E2:E24" headerRowCount="0" headerRowDxfId="10" dataDxfId="8" totalsRowDxfId="9">
   <tableColumns count="1">
-    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="1" name="Column1" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="yago-style 5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1766,16 +2061,16 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table_13" displayName="Table_13" ref="A1:A24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table_13" displayName="Table_13" ref="A1:A24" headerRowDxfId="22" dataDxfId="20" totalsRowDxfId="21">
   <tableColumns count="1">
-    <tableColumn id="1" name="MAP-score"/>
+    <tableColumn id="1" name="MAP-score" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="yago-style 11" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table_15" displayName="Table_15" ref="G2:G24" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table_15" displayName="Table_15" ref="H2:H24" headerRowCount="0">
   <tableColumns count="1">
     <tableColumn id="1" name="Column1"/>
   </tableColumns>
@@ -2048,8 +2343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6:W12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2059,32 +2354,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -2093,32 +2388,32 @@
       <c r="V1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="24">
         <v>0.79332000000000003</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="24">
         <v>0.80054999999999998</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="24">
         <v>0.75253999999999999</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="24">
         <v>0.71626000000000001</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="24">
+        <v>0.18009</v>
+      </c>
+      <c r="G2" s="24">
         <v>0.36037999999999998</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>0.34928999999999999</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>0.34964000000000001</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.18009</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="9" t="s">
@@ -2146,32 +2441,32 @@
       <c r="V2" s="2"/>
     </row>
     <row r="3" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="24">
         <v>0.50129999999999997</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="24">
         <v>0.53312000000000004</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="24">
         <v>0.52839999999999998</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="24">
         <v>0.53632999999999997</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="24">
+        <v>0.41554999999999997</v>
+      </c>
+      <c r="G3" s="24">
         <v>0.42425000000000002</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>0.42241000000000001</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>0.3947</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.41554999999999997</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>6</v>
@@ -2201,32 +2496,32 @@
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="24">
         <v>0.89442999999999995</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="24">
         <v>0.89898</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="24">
         <v>0.88210999999999995</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="24">
         <v>0.87897999999999998</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="24">
+        <v>0.27307999999999999</v>
+      </c>
+      <c r="G4" s="24">
         <v>0.37712000000000001</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>0.37184</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>0.48710999999999999</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.27307999999999999</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>8</v>
@@ -2256,32 +2551,32 @@
       <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="24">
         <v>0.62829000000000002</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="24">
         <v>0.56960999999999995</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="24">
         <v>0.54864999999999997</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="24">
         <v>0.59006000000000003</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="24">
+        <v>0.26362000000000002</v>
+      </c>
+      <c r="G5" s="24">
         <v>0.41253000000000001</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>0.38124000000000002</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>0.38274000000000002</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.26362000000000002</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>59</v>
@@ -2311,32 +2606,32 @@
       <c r="V5" s="2"/>
     </row>
     <row r="6" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="24">
         <v>0.69343999999999995</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="24">
         <v>0.63065000000000004</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="24">
         <v>0.63188</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="24">
         <v>0.62124999999999997</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="24">
+        <v>0.41864000000000001</v>
+      </c>
+      <c r="G6" s="24">
         <v>0.65207000000000004</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>0.66905000000000003</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>0.53254000000000001</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.41864000000000001</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="8" t="s">
@@ -2375,32 +2670,32 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="24">
         <v>0.96596000000000004</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="24">
         <v>0.96416000000000002</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="24">
         <v>0.94749000000000005</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="24">
         <v>0.95650999999999997</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="24">
+        <v>0.71847000000000005</v>
+      </c>
+      <c r="G7" s="24">
         <v>0.92544999999999999</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>0.90527999999999997</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>0.85340000000000005</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.71847000000000005</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -2427,32 +2722,32 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="24">
         <v>0.95833000000000002</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="24">
         <v>0.95833000000000002</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="24">
         <v>0.95833000000000002</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="24">
         <v>0.95833000000000002</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="24">
+        <v>0.37472</v>
+      </c>
+      <c r="G8" s="24">
         <v>0.41641</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>0.31659999999999999</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>0.43845000000000001</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.37472</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -2478,32 +2773,32 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="24">
         <v>0.69174000000000002</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="24">
         <v>0.67676999999999998</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="24">
         <v>0.70918999999999999</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="24">
         <v>0.65849000000000002</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="24">
+        <v>0.55135999999999996</v>
+      </c>
+      <c r="G9" s="24">
         <v>0.41793999999999998</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>0.38441999999999998</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>0.44649</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.55135999999999996</v>
       </c>
       <c r="J9" s="2"/>
       <c r="S9" s="9" t="s">
@@ -2523,32 +2818,32 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="24">
         <v>0.61319000000000001</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="24">
         <v>0.65481999999999996</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="24">
         <v>0.65737000000000001</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="24">
         <v>0.62421000000000004</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="24">
+        <v>0.29658000000000001</v>
+      </c>
+      <c r="G10" s="24">
         <v>0.64058999999999999</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>0.57132000000000005</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>0.60785</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.29658000000000001</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2584,32 +2879,32 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="24">
         <v>0.53725999999999996</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="24">
         <v>0.55271000000000003</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="24">
         <v>0.54764999999999997</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="24">
         <v>0.54766999999999999</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="24">
+        <v>0.46001999999999998</v>
+      </c>
+      <c r="G11" s="24">
         <v>0.57845999999999997</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>0.58348999999999995</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>0.52429000000000003</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.46001999999999998</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="6" t="s">
@@ -2647,32 +2942,32 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="B12" s="24">
+        <v>1</v>
+      </c>
+      <c r="C12" s="24">
+        <v>1</v>
+      </c>
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0.43101</v>
+      </c>
+      <c r="G12" s="24">
         <v>0.34347</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>0.34660000000000002</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>0.27350000000000002</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.43101</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="6" t="s">
@@ -2710,32 +3005,32 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="24">
         <v>0.98151999999999995</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="24">
         <v>0.97921000000000002</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="24">
         <v>0.97963999999999996</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="24">
         <v>0.98102999999999996</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="24">
+        <v>0.78825000000000001</v>
+      </c>
+      <c r="G13" s="24">
         <v>0.89837999999999996</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>0.90973000000000004</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>0.77912999999999999</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.78825000000000001</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="6" t="s">
@@ -2758,32 +3053,32 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="24">
         <v>0.79952999999999996</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="24">
         <v>0.80545999999999995</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="24">
         <v>0.80479999999999996</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="24">
         <v>0.79613</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="24">
+        <v>0.44191999999999998</v>
+      </c>
+      <c r="G14" s="24">
         <v>0.70572999999999997</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>0.71394999999999997</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>0.72811999999999999</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.44191999999999998</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="6" t="s">
@@ -2806,32 +3101,32 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="24">
         <v>0.57379000000000002</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="24">
         <v>0.55679000000000001</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="24">
         <v>0.63290000000000002</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="24">
         <v>0.64637</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="24">
+        <v>0.60736999999999997</v>
+      </c>
+      <c r="G15" s="24">
         <v>0.54264999999999997</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>0.54805000000000004</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>0.44113999999999998</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.60736999999999997</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
@@ -2854,32 +3149,32 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="24">
         <v>0.84321999999999997</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="24">
         <v>0.78680000000000005</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="24">
         <v>0.78085000000000004</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="24">
         <v>0.77973999999999999</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="24">
+        <v>0.25270999999999999</v>
+      </c>
+      <c r="G16" s="24">
         <v>0.48526000000000002</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>0.51902000000000004</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>0.61087999999999998</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.25270999999999999</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
@@ -2902,32 +3197,32 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="24">
         <v>0.94565999999999995</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="24">
         <v>0.94357000000000002</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="24">
         <v>0.94128999999999996</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="24">
         <v>0.94206999999999996</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="24">
+        <v>0.85372000000000003</v>
+      </c>
+      <c r="G17" s="24">
         <v>0.63832999999999995</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>0.64066999999999996</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>0.80554999999999999</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.85372000000000003</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
@@ -2950,32 +3245,32 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="24">
         <v>0.88983999999999996</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="24">
         <v>0.90505999999999998</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="24">
         <v>0.88780000000000003</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="24">
         <v>0.87590999999999997</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="24">
+        <v>0.87958999999999998</v>
+      </c>
+      <c r="G18" s="24">
         <v>0.69330999999999998</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>0.64117000000000002</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>0.64266000000000001</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.87958999999999998</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
@@ -2998,96 +3293,96 @@
       </c>
     </row>
     <row r="19" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="24">
         <v>0.81227000000000005</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="24">
         <v>0.78910999999999998</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="24">
         <v>0.73321999999999998</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="24">
         <v>0.74839999999999995</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="24">
+        <v>0.32002999999999998</v>
+      </c>
+      <c r="G19" s="24">
         <v>0.50058999999999998</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>0.44269999999999998</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>0.49175999999999997</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.32002999999999998</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="B20" s="24">
+        <v>1</v>
+      </c>
+      <c r="C20" s="24">
+        <v>1</v>
+      </c>
+      <c r="D20" s="24">
+        <v>1</v>
+      </c>
+      <c r="E20" s="24">
+        <v>1</v>
+      </c>
+      <c r="F20" s="24">
+        <v>0.16857</v>
+      </c>
+      <c r="G20" s="24">
         <v>0.44207999999999997</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>0.46545999999999998</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>0.52795000000000003</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.16857</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="24">
         <v>0.62082000000000004</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="24">
         <v>0.66220000000000001</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="24">
         <v>0.64088000000000001</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="24">
         <v>0.64336000000000004</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="24">
+        <v>0.35269</v>
+      </c>
+      <c r="G21" s="24">
         <v>0.60097999999999996</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>0.65676999999999996</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>0.44141000000000002</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.35269</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -3111,32 +3406,32 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="24">
         <v>0.99617</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="24">
         <v>0.99692999999999998</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="24">
         <v>0.99670999999999998</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="24">
         <v>0.99568999999999996</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="24">
+        <v>0.79622999999999999</v>
+      </c>
+      <c r="G22" s="24">
         <v>0.91234000000000004</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>0.92103000000000002</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>0.77195999999999998</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.79622999999999999</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2" t="s">
@@ -3162,32 +3457,32 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="24">
         <v>0.95472000000000001</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="24">
         <v>0.95001999999999998</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="24">
         <v>0.94155</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="24">
         <v>0.94423999999999997</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="24">
+        <v>0.54088999999999998</v>
+      </c>
+      <c r="G23" s="24">
         <v>0.63475000000000004</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>0.62187000000000003</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>0.71606000000000003</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0.54088999999999998</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2" t="s">
@@ -3213,32 +3508,32 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="24">
         <v>0.38591999999999999</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="24">
         <v>0.3634</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="24">
         <v>0.34766000000000002</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="24">
         <v>0.35125000000000001</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="24">
+        <v>0.30241000000000001</v>
+      </c>
+      <c r="G24" s="24">
         <v>0.36836000000000002</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>0.38851999999999998</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <v>0.34788000000000002</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0.30241000000000001</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="7" t="s">
@@ -9264,7 +9559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
@@ -9277,86 +9572,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>243</v>
       </c>
       <c r="C2" s="12">
         <v>35000</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>245</v>
       </c>
       <c r="C3" s="12">
         <v>114</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>248</v>
       </c>
       <c r="C4" s="12">
         <v>1367</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>250</v>
       </c>
       <c r="C5" s="12">
         <v>1632</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>252</v>
       </c>
       <c r="C6" s="12">
         <v>35000</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>253</v>
       </c>
     </row>
@@ -9384,14 +9679,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
